--- a/Testdata/TC_144.xlsx
+++ b/Testdata/TC_144.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>uEsAAB+LCAAAAAAAAAPtnOtvG1UWwP+VkSUkkHBmxnYc23s7yI+ktRonVezShi/VeOYmme14xjuPJP5WtELtdttKqAW2vJYi2AW0fUiwbGi78L+g2kk+8S/suffO0x63dlvYBBlF4DmP+zj33nN+M4yN3tjt6Nw2tmzNNE6kxDkhxWFDMVXN2DyRcp2NtJhPvSGhxV0F62dkS+5gB4w58DLs0q6tnUhtOU63xPM7OztzO9k509rkM4Ig8ucby01lC3fktGbYjmwoOBV4qc/2SkmoqnYa2JFV2ZGZ54lUvVmfq2JNqYGsIRvyJrbmKq6tGdi2Fw1HczRsE08Lyw6u1hpvsolJmbn8nIj4EXloWXE1XWV2MUsm9+ygW9zSOljKCGIhLYrpTLElFEuCWBILcwvi/Fu+Y2CIlmXbaWJrW1OooOnInS51F8VMUSgKolhAfKIRtBUGQEKrurqGtzUbq1Ws6/ZUEeG9BSwrDsx6umAKiI/4eg09/xBOWnJ3q6U5Op7Wfcm0sAKBeq6+V/DOquXFr9VdBm1rS7OcXk3uTd3WWRtbq10SjelcJVQzDaesY8s524VFxSqsOSgkx3Ix4scoQ6eaZivwWTNcrEobsm5HnWJKdM60LtpdWcErcGB50saOoZuyCjvL0WxHU8JORxTojGV2oUXovGLq6hK06hknKIKW6waEmHRbMc2L4eiSlIjuAbobYE07suObj8hRc8vcWTX0XtNt24qltbFaq/jWiTpETp7nXXVtx+zAKEIRYrKIRFX5RoPvwT9w3oaVqIYVrSPrZ3QIpS1loa2YAJVdx9zQnKqpux3D9kc2JEXnYF4tvBvMM7hGq7DEBgm9adQN354FO1EVd1gzd4I+RxU0FBFx2Vb8RR9VDBvXQOYv4qiGrguZ5ZKmQzmIrkhEGt8bzS2MncSNwTSIZL4lUmCkSm/F7bThkLXhpG3TXm3Eh3oEuxV2PIxLEqBopOlfSxBK9A/GEajRoqGOt/OVCLqL9CWJoBsSIZiTXtFl4yJIz2nO1krZn0uCBrEIjLUf1SE4v11d7lFxEKWoDNUNRXdVzNJC3digW5SMjS3qWDUaES3DSZeQbPRavS6kYVsrOfDhRAoKc8l2LCj9KUkxXcOxeiR/IN4zfZaP7bYN2oGsT+yzYeE/uUAcvSXXUKqmOnlvKovOWUNzJh+h6VosKU7uQqNH8qNr1zDJNDT1T+yvTDMn25rKvGPgjmloyuTRhiCT0avPMRHbP1UTe2B2via216G6s+JHzvrEbhbgIpS7qbop27apaHSzesdDjfjzY45MDW/Irg6o5kCh3Qxy77AYle2LwzZRETpr6X4GlAgI20DCitqZUwAhCO3NKWaHCHgA0HNNxEftCQcpeNHYXJaNTRdII8grw/Ig/5Iq2bJkwybTCcBiKBUnGyE/TzHgkVjyWnXpRmDJywQt4ofsUAt3uqYl6w0IjLbkbTuPmgBIGrKz5V1BbdOx4geZD10Dr/jI/IE/y4wWKTYNcuC9NDkkpEZkLoy5Q5tQhsgsG3As9aqsa22LZVW/lCfpYMFCRPTzL5nclLjorwHcd0H1PY17BMbDC09Ot6zoK9gGJolUaq7lCplcsTAPZEOuEZ1xDXdNW3O4NZhgiatuaUDiVXCESHIVWMMSV97eLHFLmgH3bBoImz3bwZ0SlxU4x+QKRY4wMxRIGj6vRL3UlqNtoiW/PtAp1GAucUncADhlE5rXRw0DTegg1WRN70XsWISWTQXM+nf/NvjXj/0rX+/fuPzL4w8Htx/C5yd7d/tf3Du8+f3BnWsg7P/wbf8Toj28/O7Bp9ef/Pfm/reP4DIrHFz+tlDsf/E1CxNrEbXkto7poFuVQkHI5mAPByJEFo6n8K26ikNl6+uUuYNr5N0j0ovqYr16crlCc1Ug9N1ZueLJ7WfPdMPLJpsp7YhuF97fZcxEavm5z7uOaSPlTyK3g9s4bh3Vj3Nksdh/9M/9R3fHensBCzlOLBbn0wL8ZZ6OeXBjnSN2YjEJ85Zj9SUwzkQbHbJBa6y4BHGqq1JWhPv2+QVBDOqEGhyEJKNhlddSS97kh/yYqMrQK9gC0WtfSQ9HC9tOoGbHJXLBgjj4918P7r8Xs/Ki60nircDgKCKRznj/gja9stbimqtn16qLXGuxSfZJqIvYscafYuz1Hhy66KahB/J1LjXPmSF7pyInNLbDkqSs9WnaGR7PSct0uyzZRBxCaYJlmHWSPBIyD9WxnDmUgkJNgrW3oh98meTgzaMWUrH0Cge361wD7tO3gl1IFWhUzeQRI6+zj6+wHPhKrAWvs+AxA+xqODvRy2CTQ4LzKteQBJ1r0oBeFC5EKpUnJLdkZ0zNcGwptzAv0vsx7xqBs0jao/9F9Q6UT9o0DRvIhyTolGwv7jreQZZWEB8XwEi7MlRuM7yPDQQsZ4fhPfzk08FH3w3ef3Bw+Zv+1a/6197ff/T3g3t32CkbvPdgcP2el9WHEz8dC7k7ZkDJ0ScuCkdOH0c4gPv50k3OMB0O8IVzaQb6+dLtSGNkoBR0wpYBD4OBxIcwYhp1Jn5cZCjBGGJ+gQuDiSopWdnAwitaZldTwk7eSpOmgHE5qni13kq7NuZMILPXYCZx49B5Uj/PhZXQMwtCRsx4WjYaMoW2bEdCf1I32wAavoI+zBgyiXk93SG0pf2dXF6tlJdDEzaIVUvFFtmG7APy8ZSUkLrtX/lbLSIBLUCk4urk+dOI2agqaDmSzHjvQc5GWSVP8JMfe8QsUNW1LAZJhve/AZpuF8A6eFYz3oA+CY3A9AoD3yheh9f1WlwP1xEtVL64mgioniYmT8WSVN0mD40YG6+Q2ISXoIs9PYV4eI/6GVpta7AmPEk9i5ZlWon5J9T4Zg3AckgpfBjywIYuKkN4NVwsX+DnvJeD8vPCfBzlT5rbQNt4Gxsu5tJcS97l/sDVDVWDabqwi+sG3EfiJFSf1PMpKF4WJ0TxEcMkFF/HsjWWxQe3fuo//Hhw6/v+O1+m97+60b96Byj7yd43Tx4+ZNIZZ780zi6kxcwzH6cCOosjdr8KZ4uTcLY44+ypOLtsGHDKX+ewQWoAl6phJcWZGxyWlS2uB0dxeuR+zibH0/f61PSd6PFU+h7JOhPgd/+H7ybE77VGhesYSeTta8ZA9/7tH5/sXSbJ7cG7/b23X5C8xfHkLV6IFJZR8hZzM+6ecfex4m7xd8Dd7CH07x67h5LPEcbuBXEsdj8Lro8iQs9g+WXB8rwwISxnfiNYLkwCy4UZLM9geQbLibCcGQ/LmQuRcjAKy/nsDJZnsHysYDkzg+XjAstDyecow3I+BstvyrqLOVhHrHKaQZ4xuzaU9CRuHmt6NBD64M61J3sf9j//tH/1s/6lxzOKflkUXchNRtFC/reh6Ex+AopmRjOKnlH0UaLo5dNrYyja1zyVogfv3z+8fK3/zoP+9Tv9658P7t96QZzOjsfp7IVIwRjF6cwMp2c4fbxwOjvD6eOC00PJ58jidK6YLcRw+tVa9bVTJhya0+Rfa9iRNZ2rmIZql7gzFrBiiWtoaok7dZpb1oyLXLnECQuUhAShWOKyc3nhlST2fjntHok3t395fKX/9seDu5+zrP3L478c/uP2YO/+4Uff92/d61962L+yR14fefSfwWeP6Xskdw8/+A6InrzIzSxv/ji48WUZrsM5kte6w+DNsP9FsR9iOp8WANJzz8T+In3zO/+rv9E9ycPz+dnD89kb3f+/N7pPna4lwT0Vj3uDe+9+/50/vyDH58ZzfO5CpFIlvEMi5Aszkp+R/LEi+dyM5I8LyQ+ln1+F5L0P7DvA3gzNGtaxM/WPmPjeDXP7uX1h7ad1rduruuoFc7ovoQZhCRuI/pIL2SjTDqZsWYBH5Ecfpv7pFXLvUZ9u9lJRyShZtV3ESl5ZyOXaC3k1JyiqnMOyIG9ADmKNku8kkyY6wNDkG73TdQJQGHcPv329JhubU7bGAkwdyTeUIVIkzmQLa5btnCdl0vvEJOuBZJ0x8XlpnoHveXa9LmXyxRwTgQkfbZ+PDdRPKQ77nR9TX9Y62pRfXBb8vBNvBFa+22XYOO0aQslbwbsAtZEWIFm3/wjljH3Tf5rW2EGCHB/4k1/XsLXNLWfagSmKkmkLSiady+J8OifLC2kZixtpUcgu5JXcQi6bnye/zeE1DhlNwztTdsL7Cxb+/pb0P7jSK5G4SwAA</t>
+          <t>Gk0AAB+LCAAAAAAAAAPtnOtv29YVwP8VQkCBFqhMUg9H0m5YyJKdCLFsw1KapF8Ciry2uVCkxodtfUsxFMm6pECRtF36WlO0W1ssD6Bd5yZZ9r8UkWx/6r+wc+/lU6IS0Uk7Z1DhtuJ53Me5957zI0EJvbHb1bltbNmaaZzMiHNChsOGYqqasXky4zobWXE+84aEFncVrK/JltzFDhhz4GXYlV1bO5nZcpxehed3dnbmdvJzprXJ5wRB5M83l1vKFu7KWc2wHdlQcCbwUp/tlZFQTe02sSOrsiMzz5OZRqsxV8OaUgdZUzbkTWzNLbi2ZmDbXjQczdGwTTwtLDu4Vm++ySYm5ebm50TEj8lDywVX01VmF7Nkcs8OusVtrYulnJATskIpmxPaQqlSFCv58lzhRP4t3zEwRMuy7bSwta0pVNBy5G6Pugsl8m9RzJcRn2gEbYUBkNCqrq7jbc3Gag3rup0qIry3gFXFgVmnC6aA+Iiv19DRh3DKkntbbc3RcVr3JdPCCgTqSH2v4J1Vy4tfu7cM2vaWZjn9utxP3dZZG1urPRKNdK4SqpuGU9Wx5ZztwaJiFdYcFJJjuRjxE5ShU12zFfisGS5WpQ1Zt6NOMSU6Z1qX7J6s4BU4sDxpY8fQTVmFneVotqMpYadjCrRmmT1oETpfMHV1CVr1jBMUQcsNA0JMul0wzUvh6JKUiO4BuhtgTbuy45uPyVFry9xZNfR+y+3YiqV1sFpf8K0TdYicPM+75tqO2YVRhCLEZBGJqvLNJt+Hf+C8jSpRHStaV9bXdAilLeWhrZgAVV3H3NCcmqm7XcP2RzYiRedgXm28G8wzuEarsMQGCb1pNAzfngU7URV3WDd3gj7HFTQUEXHVVvxFH1eMGtdB5i/iuIauC5nlkqZDOYiuSEQa3xutLYydxI3BNIhkviVSYKSF/orb7cAh68BJ26a92ogP9Qh2K+x4GJckQNHI0r+2IFToH4wjUKNFQ51s5ysRdBfpSxJBNyJCMCd9QZeNSyA9pzlbK1V/LgkaxCIw0X5ch+D89nS5T8VBlKIy1DAU3VUxSwsNY4NuUTI2tqgT1WhMtAwnXUKy0W/3e5CGba3iwIeTGSjMFduxoPRnJMV0Dcfqk/yBeM/0WT622zFoB7I+tc+Ghf/gAnH0l1xDqZnq9L2pLDpnDc2ZfoSma7GkOL0LjR7Jj65dxyTT0NQ/tb+SZk62lcq8a+CuaWjK9NGGIJPRq0eYiO2fqqk9MDtfU9vrUN1Z8SNnfWo3C3ARyl2qbqq2bSoa3aze8VAj/vyEI1PHG7KrA6o5UGg3g9w7KkZV+9KoTVSEzlq6nwElAsI2kLCiducUQAhCe3OK2SUCHgD0XAvxUXvCQQpeNDaXZWPTBdII8sqoPMi/pEq2LdmwyXQCsBhJxclGyM9TDHgklrxWXboRWPIyQYv4ETvUxt2eacl6EwKjLXnbzqMmAJKm7Gx5V1DbdKz4QeZD18ArPjJ/4M8yo0WKTYMceC9NjgipEZkLY+7QJpQhMssmHEu9Jutax2JZ1S/lSTpYsBAR/fxLJpcSF/01gPsuqL5ncJ/AeHjhyemWFX0F28AkkUqt9UIpVyiXikA25BrRGddxz7Q1h1uHCVa42pYGJF4DR4gktwBrWOGq25sVbkkz4J5NA2Grbzu4W+HyAueYXKnMEWaGAknD55WoF9pytE205NcHOoU6zCUuiRsAp2xC8/q4YaAJHaS6rOn9iB2L0LKpgNngzl+G/3g8uPrt/ntXfnn08fDWA/j8ZO/O4Ku7hzd+PLh9DYSDn74ffEa0h1feP/j8+pN/39j//iFc5oWDK9+XyoOvvmVhYi2ittzRMR10e6FUEvIF2MOBCJGF4yl8q67iUNmFC5S5g2vk3SPSi9pio3ZqeYHmqkDou7NyxZPbz77phpctNlPaEd0uvL/LmInU9nOfdx3TRsqfRG4Ht3HcOqqf5Mhisf/w7/sP70z09gIWcpxYLhezAvzlno55OUEsEDuxnIR5y7H6Ehjnoo2O2KB1VlyCODVUKS8KZaF4QhCDOqEGByHJaFTltdSWN/kRPyaqMfQKtkD02lfSw9HGthOo2XGJXLAgDv/554N7H8SsvOh6kngrMDiKSKQz3r+gTa+st7nW6tn12iLXXmyRfRLqInas8acYe70Hhy66aeiBfJ3LFDkzZO9M5ITGdliSlLWepp3R8ZyyTLfHkk3EIZQmWIZZJ8kjIfNQHcuZIyko1CRYeyv60ddJDt486iEVS69wcLvONeE+fSvYhVSBxtVMHjHyOvv0KsuBr8Ra8DoLHjPAroazE70MNjkkOK9yjUjQuRYN6CXhYqRSeUJyS7ZmaoZjS4UTRZHej3nXCJxF0h79P2p0oXzSpmnYQD4iQadle3HX8Q6ytIL4uABG2pOhcpvhfWwgYDk7DO/hZ58PP/lh+OH9gyvfDd79ZnDtw/2Hfz24e5udsuEH94fX73pZfTTx07GQu2MGlBx94qJw5PRxhAO4ny/f4AzT4QBfOJdmoJ8v34o0RgZKQSdsGfAwGEh8CGOmUWfix0WGEowh5he4MJiokZKVDyy8omX2NCXs5K0saQoYl6OKVxvtrGtjzgQyew1mEjcOnaf181xYCV07IeTEnKdloyFT6Mh2JPSndLMDoOEr6MOMEZOY19MdQlva36nl1YXqcmjCBrFqqdgi25B9QA3bB1R/e0UkoAVwVFydPHMaMxtXIf9TJIHx3sObjapKntonP+qIWaCaa1kMjAzv0X/L7QFMB89nJhvQp58RgF5hsBtF6vC6UY/r4TqihWoXVxMB1dNk5KlYYmrY5EER4+EVEpvwEnSxJ6YQD+/xPsOpbQ3WgSfpZtGyTCsx54Qa36wJKA5phA9DHtjwpEuG7Wq4WL7Az3MvBt+LQjGO76fMbSBsvI0NF3NZri3vcr/jGoaqwTRd2LkNA+4dcRKeT+v5FPyuilPi95hhEn5fwLI1kb+HN/8zePDp8OaPg3e+zu5/897g3dtA1k/2vnvy4AGTztj6hbF1KSvmnvkIFXBZHLP7VdhanIatxRlbp2LrqmHAKX+dwwapAVymjpUMZ25wWFa2uD4cxfSYfcQmJxP3hdTEnejxVOIeyzpTIPfgpx+mRO715gLXNZJo29dMAO39W4+f7F0hye3++4O9t5+TtsXJtC1ejBSWcdoWCzPWnrH2S8Xa4kvK2uxh8/89ao8knGOM2ifEiaj9LKA+jtg8A+QXBchFYUpAzv1GgFyaBpBLM0CeAfIMkBMBOTcZkHMXI+VgHJDn8zNAngHySwXIuRkgH2dAHkk4xxmQ52OA/Kasu5iDdcQqpxnkWbJrQxlPYuWJpscDmw9uX3uy9/Hgy88H734xuPxoRs4vipxLhenIWZj/bcg5Nz8FOTOjGTnPyPk4kfPymfUJ5OxrnkrOww/vHV65Nnjn/uD67cH1L4f3bj4nQucnI3T+YqRgjCN0bobQM4R+uRA6P0Po44zQIwnn2CJ0oZwvxRD61XrttdMmHJQz5D+t6jr3am0LCsxr3Dp2ZE3nFkxDtSvcmgWsWOGamlrhTp/hljXjEletcMIJSkKCUK5w+bl54ZUk9n7xfRyLN7R/eXR18Panwztfsgz+y6M/Hf7t1nDv3uEnPw5u3h1cfjC4ukdeGXn4r+EXj+i7I3cOP/oB6J68sM0sbzwevvd1Fa7DOZLXt8NAzm4BnvcWAGJazAoA7IVn3gKU6Rve89PdApSzIqTE8lHe3J7m4Xlx9vB89ub2/+7N7dNn6kmgT8WT3tTeuzd454/PyfSFyUxfuBipYAnvjQjzpRnVz6j+paL6wozqjzPVj6ScX4XqvQ/s+73eDM061rGT+gdKfO+muX1kX1j7tK4Ne1VXvWCm+4JpEJawgeivtJCNknYwVcsCJCI/6JD6Z1XI/UYj3eylnJrr5DpFrMqqLG90OoqQx6WSqBTL5Y5SgjzIGiXfNyZNdIGbybd103UCIBh3D79ZvS4bmylbYwGmjuTbxxApDydoYg+u0ZJm2c55Uim9T0xyIZBcYFh8Xioy9j3Pri9IuflygYnAhI92x8fG7WcYh/2kj6kva10t5XeUBT8NxRuBjdDrMXJMu6RQ9VbwLnBtpAXI153fQ0VjX+pP0xo7V5DmA3+/rZbbSd0c7zuvgZ7eHx/Je1EFNju6N/2BHE1/jgFQ9jpqEw3D1ja3nNRHtVzO43mcy+Y2FCULOR1noR53sqq8URYFYSOvFnPkV0y8xqE+aHgnZSekqmi2K+vp/fiRXziT/gtqH3fFGk0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -438,7 +438,7 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Hong Kong Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
+          <t>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -755,7 +755,7 @@
         <v>41781</v>
       </c>
       <c r="F14" s="5">
-        <v>41781</v>
+        <v>43778</v>
       </c>
     </row>
     <row r="15">
@@ -858,10 +858,10 @@
         <v>-0.3306397101351137</v>
       </c>
       <c r="C20" s="2">
-        <v>0.0156159028969747</v>
+        <v>0.01561590289697475</v>
       </c>
       <c r="D20" s="2">
-        <v>0.5088159326089575</v>
+        <v>0.5088159326089573</v>
       </c>
       <c r="E20" s="2">
         <v>0.5012749293714148</v>
@@ -877,13 +877,13 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.4005342754007675</v>
+        <v>-0.400534275400767</v>
       </c>
       <c r="C21" s="2">
-        <v>-1.075751539480832</v>
+        <v>-1.075751539480831</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.497756315366257</v>
+        <v>-0.4977563153662574</v>
       </c>
       <c r="E21" s="2">
         <v>-0.7795762174608876</v>
@@ -35118,4 +35118,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>2695</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</Name>
+          <DisplayName>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</DisplayName>
+          <SeriesId>310905701</SeriesId>
+          <Code>SR4824985</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>2695</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>2695</EndRow>
+          <EndCol>4</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>5</InitCol>
+          <EndRow>2695</EndRow>
+          <EndCol>5</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>3</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>6</InitCol>
+          <EndRow>2695</EndRow>
+          <EndCol>6</EndCol>
+          <Name>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</Name>
+          <DisplayName>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</DisplayName>
+          <SeriesId>310905801</SeriesId>
+          <Code>SR4824938</Code>
+          <Order>4</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{456B4C3F-7735-4D74-8AC6-2FD2AAE7D70D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_144.xlsx
+++ b/Testdata/TC_144.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Gk0AAB+LCAAAAAAAAAPtnOtv29YVwP8VQkCBFqhMUg9H0m5YyJKdCLFsw1KapF8Ciry2uVCkxodtfUsxFMm6pECRtF36WlO0W1ssD6Bd5yZZ9r8UkWx/6r+wc+/lU6IS0Uk7Z1DhtuJ53Me5957zI0EJvbHb1bltbNmaaZzMiHNChsOGYqqasXky4zobWXE+84aEFncVrK/JltzFDhhz4GXYlV1bO5nZcpxehed3dnbmdvJzprXJ5wRB5M83l1vKFu7KWc2wHdlQcCbwUp/tlZFQTe02sSOrsiMzz5OZRqsxV8OaUgdZUzbkTWzNLbi2ZmDbXjQczdGwTTwtLDu4Vm++ySYm5ebm50TEj8lDywVX01VmF7Nkcs8OusVtrYulnJATskIpmxPaQqlSFCv58lzhRP4t3zEwRMuy7bSwta0pVNBy5G6Pugsl8m9RzJcRn2gEbYUBkNCqrq7jbc3Gag3rup0qIry3gFXFgVmnC6aA+Iiv19DRh3DKkntbbc3RcVr3JdPCCgTqSH2v4J1Vy4tfu7cM2vaWZjn9utxP3dZZG1urPRKNdK4SqpuGU9Wx5ZztwaJiFdYcFJJjuRjxE5ShU12zFfisGS5WpQ1Zt6NOMSU6Z1qX7J6s4BU4sDxpY8fQTVmFneVotqMpYadjCrRmmT1oETpfMHV1CVr1jBMUQcsNA0JMul0wzUvh6JKUiO4BuhtgTbuy45uPyVFry9xZNfR+y+3YiqV1sFpf8K0TdYicPM+75tqO2YVRhCLEZBGJqvLNJt+Hf+C8jSpRHStaV9bXdAilLeWhrZgAVV3H3NCcmqm7XcP2RzYiRedgXm28G8wzuEarsMQGCb1pNAzfngU7URV3WDd3gj7HFTQUEXHVVvxFH1eMGtdB5i/iuIauC5nlkqZDOYiuSEQa3xutLYydxI3BNIhkviVSYKSF/orb7cAh68BJ26a92ogP9Qh2K+x4GJckQNHI0r+2IFToH4wjUKNFQ51s5ysRdBfpSxJBNyJCMCd9QZeNSyA9pzlbK1V/LgkaxCIw0X5ch+D89nS5T8VBlKIy1DAU3VUxSwsNY4NuUTI2tqgT1WhMtAwnXUKy0W/3e5CGba3iwIeTGSjMFduxoPRnJMV0Dcfqk/yBeM/0WT622zFoB7I+tc+Ghf/gAnH0l1xDqZnq9L2pLDpnDc2ZfoSma7GkOL0LjR7Jj65dxyTT0NQ/tb+SZk62lcq8a+CuaWjK9NGGIJPRq0eYiO2fqqk9MDtfU9vrUN1Z8SNnfWo3C3ARyl2qbqq2bSoa3aze8VAj/vyEI1PHG7KrA6o5UGg3g9w7KkZV+9KoTVSEzlq6nwElAsI2kLCiducUQAhCe3OK2SUCHgD0XAvxUXvCQQpeNDaXZWPTBdII8sqoPMi/pEq2LdmwyXQCsBhJxclGyM9TDHgklrxWXboRWPIyQYv4ETvUxt2eacl6EwKjLXnbzqMmAJKm7Gx5V1DbdKz4QeZD18ArPjJ/4M8yo0WKTYMceC9NjgipEZkLY+7QJpQhMssmHEu9Jutax2JZ1S/lSTpYsBAR/fxLJpcSF/01gPsuqL5ncJ/AeHjhyemWFX0F28AkkUqt9UIpVyiXikA25BrRGddxz7Q1h1uHCVa42pYGJF4DR4gktwBrWOGq25sVbkkz4J5NA2Grbzu4W+HyAueYXKnMEWaGAknD55WoF9pytE205NcHOoU6zCUuiRsAp2xC8/q4YaAJHaS6rOn9iB2L0LKpgNngzl+G/3g8uPrt/ntXfnn08fDWA/j8ZO/O4Ku7hzd+PLh9DYSDn74ffEa0h1feP/j8+pN/39j//iFc5oWDK9+XyoOvvmVhYi2ittzRMR10e6FUEvIF2MOBCJGF4yl8q67iUNmFC5S5g2vk3SPSi9pio3ZqeYHmqkDou7NyxZPbz77phpctNlPaEd0uvL/LmInU9nOfdx3TRsqfRG4Ht3HcOqqf5Mhisf/w7/sP70z09gIWcpxYLhezAvzlno55OUEsEDuxnIR5y7H6Ehjnoo2O2KB1VlyCODVUKS8KZaF4QhCDOqEGByHJaFTltdSWN/kRPyaqMfQKtkD02lfSw9HGthOo2XGJXLAgDv/554N7H8SsvOh6kngrMDiKSKQz3r+gTa+st7nW6tn12iLXXmyRfRLqInas8acYe70Hhy66aeiBfJ3LFDkzZO9M5ITGdliSlLWepp3R8ZyyTLfHkk3EIZQmWIZZJ8kjIfNQHcuZIyko1CRYeyv60ddJDt486iEVS69wcLvONeE+fSvYhVSBxtVMHjHyOvv0KsuBr8Ra8DoLHjPAroazE70MNjkkOK9yjUjQuRYN6CXhYqRSeUJyS7ZmaoZjS4UTRZHej3nXCJxF0h79P2p0oXzSpmnYQD4iQadle3HX8Q6ytIL4uABG2pOhcpvhfWwgYDk7DO/hZ58PP/lh+OH9gyvfDd79ZnDtw/2Hfz24e5udsuEH94fX73pZfTTx07GQu2MGlBx94qJw5PRxhAO4ny/f4AzT4QBfOJdmoJ8v34o0RgZKQSdsGfAwGEh8CGOmUWfix0WGEowh5he4MJiokZKVDyy8omX2NCXs5K0saQoYl6OKVxvtrGtjzgQyew1mEjcOnaf181xYCV07IeTEnKdloyFT6Mh2JPSndLMDoOEr6MOMEZOY19MdQlva36nl1YXqcmjCBrFqqdgi25B9QA3bB1R/e0UkoAVwVFydPHMaMxtXIf9TJIHx3sObjapKntonP+qIWaCaa1kMjAzv0X/L7QFMB89nJhvQp58RgF5hsBtF6vC6UY/r4TqihWoXVxMB1dNk5KlYYmrY5EER4+EVEpvwEnSxJ6YQD+/xPsOpbQ3WgSfpZtGyTCsx54Qa36wJKA5phA9DHtjwpEuG7Wq4WL7Az3MvBt+LQjGO76fMbSBsvI0NF3NZri3vcr/jGoaqwTRd2LkNA+4dcRKeT+v5FPyuilPi95hhEn5fwLI1kb+HN/8zePDp8OaPg3e+zu5/897g3dtA1k/2vnvy4AGTztj6hbF1KSvmnvkIFXBZHLP7VdhanIatxRlbp2LrqmHAKX+dwwapAVymjpUMZ25wWFa2uD4cxfSYfcQmJxP3hdTEnejxVOIeyzpTIPfgpx+mRO715gLXNZJo29dMAO39W4+f7F0hye3++4O9t5+TtsXJtC1ejBSWcdoWCzPWnrH2S8Xa4kvK2uxh8/89ao8knGOM2ifEiaj9LKA+jtg8A+QXBchFYUpAzv1GgFyaBpBLM0CeAfIMkBMBOTcZkHMXI+VgHJDn8zNAngHySwXIuRkgH2dAHkk4xxmQ52OA/Kasu5iDdcQqpxnkWbJrQxlPYuWJpscDmw9uX3uy9/Hgy88H734xuPxoRs4vipxLhenIWZj/bcg5Nz8FOTOjGTnPyPk4kfPymfUJ5OxrnkrOww/vHV65Nnjn/uD67cH1L4f3bj4nQucnI3T+YqRgjCN0bobQM4R+uRA6P0Po44zQIwnn2CJ0oZwvxRD61XrttdMmHJQz5D+t6jr3am0LCsxr3Dp2ZE3nFkxDtSvcmgWsWOGamlrhTp/hljXjEletcMIJSkKCUK5w+bl54ZUk9n7xfRyLN7R/eXR18Panwztfsgz+y6M/Hf7t1nDv3uEnPw5u3h1cfjC4ukdeGXn4r+EXj+i7I3cOP/oB6J68sM0sbzwevvd1Fa7DOZLXt8NAzm4BnvcWAGJazAoA7IVn3gKU6Rve89PdApSzIqTE8lHe3J7m4Xlx9vB89ub2/+7N7dNn6kmgT8WT3tTeuzd454/PyfSFyUxfuBipYAnvjQjzpRnVz6j+paL6wozqjzPVj6ScX4XqvQ/s+73eDM061rGT+gdKfO+muX1kX1j7tK4Ne1VXvWCm+4JpEJawgeivtJCNknYwVcsCJCI/6JD6Z1XI/UYj3eylnJrr5DpFrMqqLG90OoqQx6WSqBTL5Y5SgjzIGiXfNyZNdIGbybd103UCIBh3D79ZvS4bmylbYwGmjuTbxxApDydoYg+u0ZJm2c55Uim9T0xyIZBcYFh8Xioy9j3Pri9IuflygYnAhI92x8fG7WcYh/2kj6kva10t5XeUBT8NxRuBjdDrMXJMu6RQ9VbwLnBtpAXI153fQ0VjX+pP0xo7V5DmA3+/rZbbSd0c7zuvgZ7eHx/Je1EFNju6N/2BHE1/jgFQ9jpqEw3D1ja3nNRHtVzO43mcy+Y2FCULOR1noR53sqq8URYFYSOvFnPkV0y8xqE+aHgnZSekqmi2K+vp/fiRXziT/gtqH3fFGk0AAA==</t>
+          <t>uEsAAB+LCAAAAAAAAAPtnOtvG1UWwP+VkSUkkHBmxnYc23s7yI+ktRonVezShi/VeOYmme14xjuPJP5WtELtdttKqAW2vJYi2AW0fUiwbGi78L+g2kk+8S/suffO0x63dlvYBBlF4DmP+zj33nN+M4yN3tjt6Nw2tmzNNE6kxDkhxWFDMVXN2DyRcp2NtJhPvSGhxV0F62dkS+5gB4w58DLs0q6tnUhtOU63xPM7OztzO9k509rkM4Ig8ucby01lC3fktGbYjmwoOBV4qc/2SkmoqnYa2JFV2ZGZ54lUvVmfq2JNqYGsIRvyJrbmKq6tGdi2Fw1HczRsE08Lyw6u1hpvsolJmbn8nIj4EXloWXE1XWV2MUsm9+ygW9zSOljKCGIhLYrpTLElFEuCWBILcwvi/Fu+Y2CIlmXbaWJrW1OooOnInS51F8VMUSgKolhAfKIRtBUGQEKrurqGtzUbq1Ws6/ZUEeG9BSwrDsx6umAKiI/4eg09/xBOWnJ3q6U5Op7Wfcm0sAKBeq6+V/DOquXFr9VdBm1rS7OcXk3uTd3WWRtbq10SjelcJVQzDaesY8s524VFxSqsOSgkx3Ix4scoQ6eaZivwWTNcrEobsm5HnWJKdM60LtpdWcErcGB50saOoZuyCjvL0WxHU8JORxTojGV2oUXovGLq6hK06hknKIKW6waEmHRbMc2L4eiSlIjuAbobYE07suObj8hRc8vcWTX0XtNt24qltbFaq/jWiTpETp7nXXVtx+zAKEIRYrKIRFX5RoPvwT9w3oaVqIYVrSPrZ3QIpS1loa2YAJVdx9zQnKqpux3D9kc2JEXnYF4tvBvMM7hGq7DEBgm9adQN354FO1EVd1gzd4I+RxU0FBFx2Vb8RR9VDBvXQOYv4qiGrguZ5ZKmQzmIrkhEGt8bzS2MncSNwTSIZL4lUmCkSm/F7bThkLXhpG3TXm3Eh3oEuxV2PIxLEqBopOlfSxBK9A/GEajRoqGOt/OVCLqL9CWJoBsSIZiTXtFl4yJIz2nO1krZn0uCBrEIjLUf1SE4v11d7lFxEKWoDNUNRXdVzNJC3digW5SMjS3qWDUaES3DSZeQbPRavS6kYVsrOfDhRAoKc8l2LCj9KUkxXcOxeiR/IN4zfZaP7bYN2oGsT+yzYeE/uUAcvSXXUKqmOnlvKovOWUNzJh+h6VosKU7uQqNH8qNr1zDJNDT1T+yvTDMn25rKvGPgjmloyuTRhiCT0avPMRHbP1UTe2B2via216G6s+JHzvrEbhbgIpS7qbop27apaHSzesdDjfjzY45MDW/Irg6o5kCh3Qxy77AYle2LwzZRETpr6X4GlAgI20DCitqZUwAhCO3NKWaHCHgA0HNNxEftCQcpeNHYXJaNTRdII8grw/Ig/5Iq2bJkwybTCcBiKBUnGyE/TzHgkVjyWnXpRmDJywQt4ofsUAt3uqYl6w0IjLbkbTuPmgBIGrKz5V1BbdOx4geZD10Dr/jI/IE/y4wWKTYNcuC9NDkkpEZkLoy5Q5tQhsgsG3As9aqsa22LZVW/lCfpYMFCRPTzL5nclLjorwHcd0H1PY17BMbDC09Ot6zoK9gGJolUaq7lCplcsTAPZEOuEZ1xDXdNW3O4NZhgiatuaUDiVXCESHIVWMMSV97eLHFLmgH3bBoImz3bwZ0SlxU4x+QKRY4wMxRIGj6vRL3UlqNtoiW/PtAp1GAucUncADhlE5rXRw0DTegg1WRN70XsWISWTQXM+nf/NvjXj/0rX+/fuPzL4w8Htx/C5yd7d/tf3Du8+f3BnWsg7P/wbf8Toj28/O7Bp9ef/Pfm/reP4DIrHFz+tlDsf/E1CxNrEbXkto7poFuVQkHI5mAPByJEFo6n8K26ikNl6+uUuYNr5N0j0ovqYr16crlCc1Ug9N1ZueLJ7WfPdMPLJpsp7YhuF97fZcxEavm5z7uOaSPlTyK3g9s4bh3Vj3Nksdh/9M/9R3fHensBCzlOLBbn0wL8ZZ6OeXBjnSN2YjEJ85Zj9SUwzkQbHbJBa6y4BHGqq1JWhPv2+QVBDOqEGhyEJKNhlddSS97kh/yYqMrQK9gC0WtfSQ9HC9tOoGbHJXLBgjj4918P7r8Xs/Ki60nircDgKCKRznj/gja9stbimqtn16qLXGuxSfZJqIvYscafYuz1Hhy66KahB/J1LjXPmSF7pyInNLbDkqSs9WnaGR7PSct0uyzZRBxCaYJlmHWSPBIyD9WxnDmUgkJNgrW3oh98meTgzaMWUrH0Cge361wD7tO3gl1IFWhUzeQRI6+zj6+wHPhKrAWvs+AxA+xqODvRy2CTQ4LzKteQBJ1r0oBeFC5EKpUnJLdkZ0zNcGwptzAv0vsx7xqBs0jao/9F9Q6UT9o0DRvIhyTolGwv7jreQZZWEB8XwEi7MlRuM7yPDQQsZ4fhPfzk08FH3w3ef3Bw+Zv+1a/6197ff/T3g3t32CkbvPdgcP2el9WHEz8dC7k7ZkDJ0ScuCkdOH0c4gPv50k3OMB0O8IVzaQb6+dLtSGNkoBR0wpYBD4OBxIcwYhp1Jn5cZCjBGGJ+gQuDiSopWdnAwitaZldTwk7eSpOmgHE5qni13kq7NuZMILPXYCZx49B5Uj/PhZXQMwtCRsx4WjYaMoW2bEdCf1I32wAavoI+zBgyiXk93SG0pf2dXF6tlJdDEzaIVUvFFtmG7APy8ZSUkLrtX/lbLSIBLUCk4urk+dOI2agqaDmSzHjvQc5GWSVP8JMfe8QsUNW1LAZJhve/AZpuF8A6eFYz3oA+CY3A9AoD3yheh9f1WlwP1xEtVL64mgioniYmT8WSVN0mD40YG6+Q2ISXoIs9PYV4eI/6GVpta7AmPEk9i5ZlWon5J9T4Zg3AckgpfBjywIYuKkN4NVwsX+DnvJeD8vPCfBzlT5rbQNt4Gxsu5tJcS97l/sDVDVWDabqwi+sG3EfiJFSf1PMpKF4WJ0TxEcMkFF/HsjWWxQe3fuo//Hhw6/v+O1+m97+60b96Byj7yd43Tx4+ZNIZZ780zi6kxcwzH6cCOosjdr8KZ4uTcLY44+ypOLtsGHDKX+ewQWoAl6phJcWZGxyWlS2uB0dxeuR+zibH0/f61PSd6PFU+h7JOhPgd/+H7ybE77VGhesYSeTta8ZA9/7tH5/sXSbJ7cG7/b23X5C8xfHkLV6IFJZR8hZzM+6ecfex4m7xd8Dd7CH07x67h5LPEcbuBXEsdj8Lro8iQs9g+WXB8rwwISxnfiNYLkwCy4UZLM9geQbLibCcGQ/LmQuRcjAKy/nsDJZnsHysYDkzg+XjAstDyecow3I+BstvyrqLOVhHrHKaQZ4xuzaU9CRuHmt6NBD64M61J3sf9j//tH/1s/6lxzOKflkUXchNRtFC/reh6Ex+AopmRjOKnlH0UaLo5dNrYyja1zyVogfv3z+8fK3/zoP+9Tv9658P7t96QZzOjsfp7IVIwRjF6cwMp2c4fbxwOjvD6eOC00PJ58jidK6YLcRw+tVa9bVTJhya0+Rfa9iRNZ2rmIZql7gzFrBiiWtoaok7dZpb1oyLXLnECQuUhAShWOKyc3nhlST2fjntHok3t395fKX/9seDu5+zrP3L478c/uP2YO/+4Uff92/d61962L+yR14fefSfwWeP6Xskdw8/+A6InrzIzSxv/ji48WUZrsM5kte6w+DNsP9FsR9iOp8WANJzz8T+In3zO/+rv9E9ycPz+dnD89kb3f+/N7pPna4lwT0Vj3uDe+9+/50/vyDH58ZzfO5CpFIlvEMi5Aszkp+R/LEi+dyM5I8LyQ+ln1+F5L0P7DvA3gzNGtaxM/WPmPjeDXP7uX1h7ad1rduruuoFc7ovoQZhCRuI/pIL2SjTDqZsWYBH5Ecfpv7pFXLvUZ9u9lJRyShZtV3ESl5ZyOXaC3k1JyiqnMOyIG9ADmKNku8kkyY6wNDkG73TdQJQGHcPv329JhubU7bGAkwdyTeUIVIkzmQLa5btnCdl0vvEJOuBZJ0x8XlpnoHveXa9LmXyxRwTgQkfbZ+PDdRPKQ77nR9TX9Y62pRfXBb8vBNvBFa+22XYOO0aQslbwbsAtZEWIFm3/wjljH3Tf5rW2EGCHB/4k1/XsLXNLWfagSmKkmkLSiady+J8OifLC2kZixtpUcgu5JXcQi6bnye/zeE1DhlNwztTdsL7Cxb+/pb0P7jSK5G4SwAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -438,7 +438,7 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
+          <t>(DC)Hong Kong Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -755,7 +755,7 @@
         <v>41781</v>
       </c>
       <c r="F14" s="5">
-        <v>43778</v>
+        <v>41781</v>
       </c>
     </row>
     <row r="15">
@@ -858,10 +858,10 @@
         <v>-0.3306397101351137</v>
       </c>
       <c r="C20" s="2">
-        <v>0.01561590289697475</v>
+        <v>0.0156159028969747</v>
       </c>
       <c r="D20" s="2">
-        <v>0.5088159326089573</v>
+        <v>0.5088159326089575</v>
       </c>
       <c r="E20" s="2">
         <v>0.5012749293714148</v>
@@ -877,13 +877,13 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.400534275400767</v>
+        <v>-0.4005342754007675</v>
       </c>
       <c r="C21" s="2">
-        <v>-1.075751539480831</v>
+        <v>-1.075751539480832</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.4977563153662574</v>
+        <v>-0.497756315366257</v>
       </c>
       <c r="E21" s="2">
         <v>-0.7795762174608876</v>
@@ -35118,81 +35118,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>2695</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</Name>
-          <DisplayName>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</DisplayName>
-          <SeriesId>310905701</SeriesId>
-          <Code>SR4824985</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>2695</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>2695</EndRow>
-          <EndCol>4</EndCol>
-          <Name>Govt Revenue</Name>
-          <DisplayName>Govt Revenue</DisplayName>
-          <SeriesId>310901801</SeriesId>
-          <Code>SR4825071</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>5</InitCol>
-          <EndRow>2695</EndRow>
-          <EndCol>5</EndCol>
-          <Name>Value Added in Industry</Name>
-          <DisplayName>Value Added in Industry</DisplayName>
-          <SeriesId>310902601</SeriesId>
-          <Code>SR4825076</Code>
-          <Order>3</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>6</InitCol>
-          <EndRow>2695</EndRow>
-          <EndCol>6</EndCol>
-          <Name>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</Name>
-          <DisplayName>(DC)Hong Kong SAR (China) Retail Bonds: Price: Mid: HK Link A: 07-05-2009: 3.60%</DisplayName>
-          <SeriesId>310905801</SeriesId>
-          <Code>SR4824938</Code>
-          <Order>4</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{456B4C3F-7735-4D74-8AC6-2FD2AAE7D70D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>